--- a/20221111_B社予実データ.xlsx
+++ b/20221111_B社予実データ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10180424\Documents\20220422　DX関連\森中さんとのMTG内容\20221108_森中さんへの提供資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\DXP事業検討チーム（外部共有）\00_定例MTG\221111\森中さん提供データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D191FA3-B283-4A25-A6A7-1391D697546A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CD3621-199A-45FF-A4F5-B7C39115E12C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{011205BD-501A-4CE9-AB96-174DAA4380F0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="2">
   <si>
     <t>-</t>
   </si>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +58,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -91,8 +99,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -107,7 +118,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="常规 2" xfId="1" xr:uid="{A7B68064-0FBF-4B2E-B646-5E2EDAF12C9E}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1414,11 +1426,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA39B93-B232-4C11-AACA-B8BD7F909B94}">
-  <dimension ref="B2:C38"/>
+  <dimension ref="B2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1715,18 +1725,117 @@
         <v>159080</v>
       </c>
     </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
+        <v>202104</v>
+      </c>
+      <c r="C39" s="2">
+        <v>171280</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <v>202105</v>
+      </c>
+      <c r="C40" s="2">
+        <v>177500</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <v>202106</v>
+      </c>
+      <c r="C41" s="2">
+        <v>199180</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <v>202107</v>
+      </c>
+      <c r="C42" s="2">
+        <v>163180</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <v>202108</v>
+      </c>
+      <c r="C43" s="2">
+        <v>134120</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <v>202109</v>
+      </c>
+      <c r="C44" s="2">
+        <v>100920</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <v>202110</v>
+      </c>
+      <c r="C45" s="2">
+        <v>48120</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <v>202111</v>
+      </c>
+      <c r="C46" s="2">
+        <v>59080</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>202112</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <v>202201</v>
+      </c>
+      <c r="C48" s="2">
+        <v>124980</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <v>202202</v>
+      </c>
+      <c r="C49" s="2">
+        <v>118080</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <v>202203</v>
+      </c>
+      <c r="C50" s="2">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BD92F-080B-4C57-8BDD-0A841A15D63A}">
-  <dimension ref="B2:N38"/>
+  <dimension ref="B2:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3119,20 +3228,20 @@
       <c r="I35" s="2">
         <v>122000</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>0</v>
+      <c r="J35" s="2">
+        <v>137000</v>
+      </c>
+      <c r="K35" s="2">
+        <v>137000</v>
+      </c>
+      <c r="L35" s="2">
+        <v>137000</v>
+      </c>
+      <c r="M35" s="2">
+        <v>152000</v>
+      </c>
+      <c r="N35" s="2">
+        <v>152000</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.4">
@@ -3157,23 +3266,23 @@
       <c r="H36" s="2">
         <v>152000</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>0</v>
+      <c r="I36" s="2">
+        <v>182000</v>
+      </c>
+      <c r="J36" s="2">
+        <v>182000</v>
+      </c>
+      <c r="K36" s="2">
+        <v>182000</v>
+      </c>
+      <c r="L36" s="2">
+        <v>122000</v>
+      </c>
+      <c r="M36" s="2">
+        <v>122000</v>
+      </c>
+      <c r="N36" s="2">
+        <v>122000</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.4">
@@ -3195,26 +3304,26 @@
       <c r="G37" s="2">
         <v>157000</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>0</v>
+      <c r="H37" s="2">
+        <v>119000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>110000</v>
+      </c>
+      <c r="J37" s="2">
+        <v>110000</v>
+      </c>
+      <c r="K37" s="2">
+        <v>91000</v>
+      </c>
+      <c r="L37" s="2">
+        <v>91000</v>
+      </c>
+      <c r="M37" s="2">
+        <v>91000</v>
+      </c>
+      <c r="N37" s="2">
+        <v>107000</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
@@ -3233,34 +3342,473 @@
       <c r="F38" s="2">
         <v>187000</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>0</v>
+      <c r="G38" s="2">
+        <v>149000</v>
+      </c>
+      <c r="H38" s="2">
+        <v>117000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>100000</v>
+      </c>
+      <c r="J38" s="2">
+        <v>91000</v>
+      </c>
+      <c r="K38" s="2">
+        <v>91000</v>
+      </c>
+      <c r="L38" s="2">
+        <v>91000</v>
+      </c>
+      <c r="M38" s="2">
+        <v>67000</v>
+      </c>
+      <c r="N38" s="2">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
+        <v>202104</v>
+      </c>
+      <c r="C39" s="2">
+        <v>175000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>205000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>185000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>148000</v>
+      </c>
+      <c r="G39" s="2">
+        <v>115000</v>
+      </c>
+      <c r="H39" s="2">
+        <v>100000</v>
+      </c>
+      <c r="I39" s="2">
+        <v>59000</v>
+      </c>
+      <c r="J39" s="2">
+        <v>60000</v>
+      </c>
+      <c r="K39" s="2">
+        <v>59000</v>
+      </c>
+      <c r="L39" s="2">
+        <v>101000</v>
+      </c>
+      <c r="M39" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N39" s="2">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <v>202105</v>
+      </c>
+      <c r="C40" s="2">
+        <v>214200</v>
+      </c>
+      <c r="D40" s="2">
+        <v>213200</v>
+      </c>
+      <c r="E40" s="2">
+        <v>130200</v>
+      </c>
+      <c r="F40" s="2">
+        <v>105800</v>
+      </c>
+      <c r="G40" s="2">
+        <v>89800</v>
+      </c>
+      <c r="H40" s="2">
+        <v>58800</v>
+      </c>
+      <c r="I40" s="2">
+        <v>59800</v>
+      </c>
+      <c r="J40" s="2">
+        <v>58800</v>
+      </c>
+      <c r="K40" s="2">
+        <v>101000</v>
+      </c>
+      <c r="L40" s="2">
+        <v>100000</v>
+      </c>
+      <c r="M40" s="2">
+        <v>101000</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <v>202106</v>
+      </c>
+      <c r="C41" s="2">
+        <v>227200</v>
+      </c>
+      <c r="D41" s="2">
+        <v>180200</v>
+      </c>
+      <c r="E41" s="2">
+        <v>88600</v>
+      </c>
+      <c r="F41" s="2">
+        <v>79800</v>
+      </c>
+      <c r="G41" s="2">
+        <v>58800</v>
+      </c>
+      <c r="H41" s="2">
+        <v>59800</v>
+      </c>
+      <c r="I41" s="2">
+        <v>58800</v>
+      </c>
+      <c r="J41" s="2">
+        <v>101000</v>
+      </c>
+      <c r="K41" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L41" s="2">
+        <v>101000</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <v>202107</v>
+      </c>
+      <c r="C42" s="2">
+        <v>165600</v>
+      </c>
+      <c r="D42" s="2">
+        <v>108400</v>
+      </c>
+      <c r="E42" s="2">
+        <v>79400</v>
+      </c>
+      <c r="F42" s="2">
+        <v>68800</v>
+      </c>
+      <c r="G42" s="2">
+        <v>69800</v>
+      </c>
+      <c r="H42" s="2">
+        <v>58800</v>
+      </c>
+      <c r="I42" s="2">
+        <v>101000</v>
+      </c>
+      <c r="J42" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K42" s="2">
+        <v>101000</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <v>202108</v>
+      </c>
+      <c r="C43" s="2">
+        <v>146400</v>
+      </c>
+      <c r="D43" s="2">
+        <v>69400</v>
+      </c>
+      <c r="E43" s="2">
+        <v>58800</v>
+      </c>
+      <c r="F43" s="2">
+        <v>59800</v>
+      </c>
+      <c r="G43" s="2">
+        <v>53800</v>
+      </c>
+      <c r="H43" s="2">
+        <v>121000</v>
+      </c>
+      <c r="I43" s="2">
+        <v>120000</v>
+      </c>
+      <c r="J43" s="2">
+        <v>136000</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <v>202109</v>
+      </c>
+      <c r="C44" s="2">
+        <v>81400</v>
+      </c>
+      <c r="D44" s="2">
+        <v>58800</v>
+      </c>
+      <c r="E44" s="2">
+        <v>59800</v>
+      </c>
+      <c r="F44" s="2">
+        <v>53800</v>
+      </c>
+      <c r="G44" s="2">
+        <v>121000</v>
+      </c>
+      <c r="H44" s="2">
+        <v>120000</v>
+      </c>
+      <c r="I44" s="2">
+        <v>136000</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <v>202110</v>
+      </c>
+      <c r="C45" s="2">
+        <v>38800</v>
+      </c>
+      <c r="D45" s="2">
+        <v>59800</v>
+      </c>
+      <c r="E45" s="2">
+        <v>53800</v>
+      </c>
+      <c r="F45" s="2">
+        <v>121000</v>
+      </c>
+      <c r="G45" s="2">
+        <v>120000</v>
+      </c>
+      <c r="H45" s="2">
+        <v>136000</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <v>202111</v>
+      </c>
+      <c r="C46" s="2">
+        <v>49800</v>
+      </c>
+      <c r="D46" s="2">
+        <v>53800</v>
+      </c>
+      <c r="E46" s="2">
+        <v>130000</v>
+      </c>
+      <c r="F46" s="2">
+        <v>130000</v>
+      </c>
+      <c r="G46" s="2">
+        <v>130000</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>202112</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44160</v>
+      </c>
+      <c r="D47" s="2">
+        <v>129600</v>
+      </c>
+      <c r="E47" s="2">
+        <v>104200</v>
+      </c>
+      <c r="F47" s="2">
+        <v>94200</v>
+      </c>
+      <c r="G47" s="2">
+        <v>133700</v>
+      </c>
+      <c r="H47" s="2">
+        <v>133300</v>
+      </c>
+      <c r="I47" s="2">
+        <v>133300</v>
+      </c>
+      <c r="J47" s="2">
+        <v>133300</v>
+      </c>
+      <c r="K47" s="2">
+        <v>133300</v>
+      </c>
+      <c r="L47" s="2">
+        <v>133300</v>
+      </c>
+      <c r="M47" s="2">
+        <v>145800</v>
+      </c>
+      <c r="N47" s="2">
+        <v>120800</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <v>202201</v>
+      </c>
+      <c r="C48" s="2">
+        <v>169600</v>
+      </c>
+      <c r="D48" s="2">
+        <v>54200</v>
+      </c>
+      <c r="E48" s="2">
+        <v>94200</v>
+      </c>
+      <c r="F48" s="2">
+        <v>133700</v>
+      </c>
+      <c r="G48" s="2">
+        <v>133300</v>
+      </c>
+      <c r="H48" s="2">
+        <v>133300</v>
+      </c>
+      <c r="I48" s="2">
+        <v>133300</v>
+      </c>
+      <c r="J48" s="2">
+        <v>133300</v>
+      </c>
+      <c r="K48" s="2">
+        <v>133300</v>
+      </c>
+      <c r="L48" s="2">
+        <v>145800</v>
+      </c>
+      <c r="M48" s="2">
+        <v>120800</v>
+      </c>
+      <c r="N48" s="2">
+        <v>133300</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <v>202202</v>
+      </c>
+      <c r="C49" s="2">
+        <v>118400</v>
+      </c>
+      <c r="D49" s="2">
+        <v>75000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>133000</v>
+      </c>
+      <c r="F49" s="2">
+        <v>133300</v>
+      </c>
+      <c r="G49" s="2">
+        <v>133300</v>
+      </c>
+      <c r="H49" s="2">
+        <v>133300</v>
+      </c>
+      <c r="I49" s="2">
+        <v>133300</v>
+      </c>
+      <c r="J49" s="2">
+        <v>133300</v>
+      </c>
+      <c r="K49" s="2">
+        <v>133300</v>
+      </c>
+      <c r="L49" s="2">
+        <v>133300</v>
+      </c>
+      <c r="M49" s="2">
+        <v>133300</v>
+      </c>
+      <c r="N49" s="2">
+        <v>133300</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <v>202203</v>
+      </c>
+      <c r="C50" s="2">
+        <v>75000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>133000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>133300</v>
+      </c>
+      <c r="F50" s="2">
+        <v>133300</v>
+      </c>
+      <c r="G50" s="2">
+        <v>133300</v>
+      </c>
+      <c r="H50" s="2">
+        <v>133300</v>
+      </c>
+      <c r="I50" s="2">
+        <v>133300</v>
+      </c>
+      <c r="J50" s="2">
+        <v>133300</v>
+      </c>
+      <c r="K50" s="2">
+        <v>133300</v>
+      </c>
+      <c r="L50" s="2">
+        <v>133300</v>
+      </c>
+      <c r="M50" s="2">
+        <v>133300</v>
+      </c>
+      <c r="N50" s="2">
+        <v>133300</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>